--- a/zabbix5.0/zabbix5.0client加入记录.xlsx
+++ b/zabbix5.0/zabbix5.0client加入记录.xlsx
@@ -8,24 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\zabbix5.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C008747-FF65-4C34-87B5-856DE1F13BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCB6231-AF04-4E7F-B15C-ED797E758ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="7740" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
   <si>
     <t>192.168.30.24</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.30.85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>192.168.30.11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,11 +126,207 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>给85提供数据服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>oaConvert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.30.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vmware6.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.30.154</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hyper-v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.30.155</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kvm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.168.30.61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.30.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agent</t>
+  </si>
+  <si>
+    <t>old_oa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.30.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.30.27</t>
+  </si>
+  <si>
+    <t>192.168.30.28</t>
+  </si>
+  <si>
+    <t>fiileShare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家抽取kvm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhxxpt03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.30.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.30.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backupOAdata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.30.33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.30.83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.30.84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kdcloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pm-test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.30.32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vmoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zabbix-server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.30.133</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交换机及网络设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团体名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30.1switch7f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhxx_public</t>
+  </si>
+  <si>
+    <t>zhxx_public</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trap 用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snmp v2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7F核心交换机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>255.1firewall7F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhxx_public_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snmp v2c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7F防火墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhxx_public_rw_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14楼核心交换机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">255.4switch13F </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -151,7 +350,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,8 +363,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -199,11 +404,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -216,6 +447,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -498,24 +757,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D3:H14"/>
+  <dimension ref="D3:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:H12"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
@@ -531,8 +796,11 @@
       <c r="H4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D5" s="2">
         <v>1</v>
       </c>
@@ -549,7 +817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D6" s="2">
         <v>2</v>
       </c>
@@ -566,8 +834,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D7" s="1">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D7" s="2">
         <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -583,8 +851,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D8" s="3">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D8" s="2">
         <v>4</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -600,15 +868,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D9" s="3">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D9" s="2">
         <v>5</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="2">
         <v>10050</v>
@@ -617,15 +885,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D10" s="3">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D10" s="2">
         <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" s="2">
         <v>10050</v>
@@ -634,12 +902,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D11" s="2">
         <v>7</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>16</v>
@@ -651,15 +919,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D12" s="2">
         <v>8</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" s="2">
         <v>10050</v>
@@ -668,33 +936,343 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D13" s="3">
+    <row r="13" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D13" s="2">
         <v>9</v>
       </c>
-      <c r="E13" s="1">
-        <v>30.85</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="E13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="2">
+        <v>10050</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D14" s="2">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="2">
+        <v>10050</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D15" s="2">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="2">
+        <v>10050</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D16" s="2">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="2">
+        <v>10050</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D17" s="2">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="2">
+        <v>10050</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D18" s="2">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="2">
+        <v>10050</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D19" s="2">
+        <v>15</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="2">
+        <v>10050</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D20" s="2">
+        <v>16</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="2">
+        <v>10050</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D21" s="2">
         <v>17</v>
       </c>
-      <c r="G13" s="1">
-        <v>10050</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="E21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="2">
+        <v>10050</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D22" s="2">
+        <v>18</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="1">
+        <v>10050</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="E14" s="5" t="s">
+    <row r="23" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D23" s="2">
+        <v>19</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="1">
+        <v>10050</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D24" s="11">
+        <v>20</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="12">
+        <v>10050</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D25" s="2">
+        <v>21</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="3">
+        <v>10050</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D27" s="2">
+        <v>22</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F14">
-        <v>86</v>
-      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D28" s="2">
+        <v>23</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D31" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D33" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D34" s="15"/>
+      <c r="E34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D35" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H35" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>